--- a/RoSATron2.0/RoSATarget.xlsx
+++ b/RoSATron2.0/RoSATarget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Programming\Revature\Revature UIPath Batch\Embrey_J-P1\RoSATron2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA57EB5-0164-4FB2-AAFA-D78FF9342B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205C5E01-27D4-40C9-9E05-A32F856EF6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5614C46B-DE10-4F57-A84F-ACD1034DA0F1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5614C46B-DE10-4F57-A84F-ACD1034DA0F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendors" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Eggs</t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>NULL PAGE</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>jane.doe@revature.net</t>
+  </si>
+  <si>
+    <t>Grape Tomatoes</t>
   </si>
 </sst>
 </file>
@@ -599,7 +608,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,10 +803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0026A6E-D28A-4737-9C9E-9F29273C5BC1}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,141 +829,153 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{7A7BB054-8D05-469F-8453-69526B911095}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{2F2A3E21-1BEF-4BF1-9811-BFB68B424EF9}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{662368FC-FAC7-47F4-846D-6F9DF0539C19}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{1FF2B276-65E3-4DF3-9B68-720CCD1763A1}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{820BCF74-F78F-488F-A406-5418A0C5C597}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{7EE8215D-1564-4610-873D-65E064DB9FC3}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{B75817E7-04B5-47F1-9EE5-2A0CE448B17D}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{FC1BF7A4-D5D2-4059-B2F5-76E1BC455948}"/>
-    <hyperlink ref="B4" r:id="rId9" xr:uid="{6F6A6F66-EC6F-4897-9AAC-FCD4F7DBC5B4}"/>
-    <hyperlink ref="B2" r:id="rId10" xr:uid="{FA365F6F-029B-410E-954F-AE75EEDAE7C1}"/>
-    <hyperlink ref="B3" r:id="rId11" xr:uid="{E8AAF129-AFE1-4941-B325-E6804AFEF640}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{7A7BB054-8D05-469F-8453-69526B911095}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{2F2A3E21-1BEF-4BF1-9811-BFB68B424EF9}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{662368FC-FAC7-47F4-846D-6F9DF0539C19}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{1FF2B276-65E3-4DF3-9B68-720CCD1763A1}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{820BCF74-F78F-488F-A406-5418A0C5C597}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{7EE8215D-1564-4610-873D-65E064DB9FC3}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{B75817E7-04B5-47F1-9EE5-2A0CE448B17D}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{FC1BF7A4-D5D2-4059-B2F5-76E1BC455948}"/>
+    <hyperlink ref="B5" r:id="rId9" xr:uid="{6F6A6F66-EC6F-4897-9AAC-FCD4F7DBC5B4}"/>
+    <hyperlink ref="B3" r:id="rId10" xr:uid="{FA365F6F-029B-410E-954F-AE75EEDAE7C1}"/>
+    <hyperlink ref="B4" r:id="rId11" xr:uid="{E8AAF129-AFE1-4941-B325-E6804AFEF640}"/>
+    <hyperlink ref="B2" r:id="rId12" xr:uid="{C7CA1632-5BF2-4C69-BC9B-0F8CE85B7967}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -962,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C174ED6F-399B-4FEA-94EA-7AFBD1091A71}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
